--- a/document/G3D-开发列表-150413.xlsx
+++ b/document/G3D-开发列表-150413.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="12090" yWindow="3525" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="进度" sheetId="21" r:id="rId1"/>
+    <sheet name="进度预估" sheetId="22" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,11 +207,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月开发 - 开发完成。</t>
+    <t>G3D-外观改版方案和开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G3D - 换皮开发预估计划</t>
+    <t>6月开发 - 开发和测试全部完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月开发 - 开发主界面完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,6 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,9 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,18 +491,18 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>135832</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>129624</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="564257" cy="183384"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 10"/>
+        <xdr:cNvPr id="2" name="TextBox 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7546282" y="4072974"/>
+          <a:off x="7576538" y="4178310"/>
           <a:ext cx="564257" cy="183384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -540,24 +544,24 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>128946</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>52183</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>35767</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>42656</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="等腰三角形 16"/>
+        <xdr:cNvPr id="3" name="等腰三角形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7739421" y="3824083"/>
-          <a:ext cx="106846" cy="161923"/>
+          <a:off x="7771358" y="3946787"/>
+          <a:ext cx="108527" cy="158562"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -590,16 +594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>128946</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71233</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>35767</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>61706</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>75548</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -608,8 +612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11139846" y="3843133"/>
-          <a:ext cx="106846" cy="161923"/>
+          <a:off x="15475962" y="3946787"/>
+          <a:ext cx="108527" cy="158561"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -642,10 +646,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>183457</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>129624</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>23213</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="987450" cy="183384"/>
     <xdr:sp macro="" textlink="">
@@ -655,7 +659,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10794307" y="4072974"/>
+          <a:off x="15128742" y="4178310"/>
           <a:ext cx="987450" cy="183384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -695,16 +699,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>157521</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>61708</xdr:rowOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>146316</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>64342</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52181</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>53137</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -713,8 +717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13968771" y="3833608"/>
-          <a:ext cx="106846" cy="161923"/>
+          <a:off x="19734198" y="3946787"/>
+          <a:ext cx="108527" cy="158562"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -747,10 +751,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>164407</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120099</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>153201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="987450" cy="183384"/>
     <xdr:sp macro="" textlink="">
@@ -760,7 +764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13575607" y="4063449"/>
+          <a:off x="19337672" y="4178310"/>
           <a:ext cx="987450" cy="183384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -800,15 +804,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>147996</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>181613</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>80758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>54817</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>88434</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>71231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -818,8 +822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15359421" y="3852658"/>
-          <a:ext cx="106846" cy="161923"/>
+          <a:off x="21383142" y="3946787"/>
+          <a:ext cx="108527" cy="158562"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -852,10 +856,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>107257</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>110574</xdr:rowOff>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>140873</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="564257" cy="183384"/>
     <xdr:sp macro="" textlink="">
@@ -865,7 +869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15118657" y="4053924"/>
+          <a:off x="21140697" y="4178310"/>
           <a:ext cx="564257" cy="183384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -903,6 +907,111 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>126307</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="846386" cy="183384"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382366" y="4178310"/>
+          <a:ext cx="846386" cy="183384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>资源分解完成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>128946</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>35767</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="等腰三角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9788417" y="3946787"/>
+          <a:ext cx="108526" cy="158562"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1193,9 +1302,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO41"/>
+  <dimension ref="A1:CO42"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1211,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.15">
@@ -1223,181 +1332,85 @@
     <row r="3" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14"/>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="14"/>
-      <c r="BP5" s="14"/>
-      <c r="BQ5" s="14"/>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14"/>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="14"/>
-      <c r="BV5" s="14"/>
-      <c r="BW5" s="14"/>
-      <c r="BX5" s="14"/>
-      <c r="BY5" s="14"/>
-      <c r="BZ5" s="14"/>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14"/>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="14"/>
-      <c r="CE5" s="14"/>
-      <c r="CF5" s="14"/>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14"/>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="14"/>
-      <c r="CK5" s="14"/>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
-      <c r="CN5" s="14"/>
-      <c r="CO5" s="14"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="15"/>
       <c r="BM6" s="15"/>
       <c r="BN6" s="15"/>
       <c r="BO6" s="15"/>
@@ -1429,656 +1442,662 @@
       <c r="CO6" s="15"/>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="B7" s="15"/>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3">
-        <v>9</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>11</v>
-      </c>
-      <c r="N7" s="4">
-        <v>12</v>
-      </c>
-      <c r="O7" s="3">
-        <v>13</v>
-      </c>
-      <c r="P7" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>15</v>
-      </c>
-      <c r="R7" s="3">
-        <v>16</v>
-      </c>
-      <c r="S7" s="3">
-        <v>17</v>
-      </c>
-      <c r="T7" s="4">
-        <v>18</v>
-      </c>
-      <c r="U7" s="4">
-        <v>19</v>
-      </c>
-      <c r="V7" s="3">
-        <v>20</v>
-      </c>
-      <c r="W7" s="3">
-        <v>21</v>
-      </c>
-      <c r="X7" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>25</v>
-      </c>
-      <c r="AB7" s="4">
+      <c r="B7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AE7" s="3">
-        <v>29</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>4</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>5</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>6</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>7</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>8</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>10</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>11</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>12</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>13</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>14</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>15</v>
-      </c>
-      <c r="AV7" s="4">
-        <v>16</v>
-      </c>
-      <c r="AW7" s="4">
-        <v>17</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>18</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>19</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>20</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>21</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>22</v>
-      </c>
-      <c r="BC7" s="4">
-        <v>23</v>
-      </c>
-      <c r="BD7" s="4">
-        <v>24</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>25</v>
-      </c>
-      <c r="BF7" s="3">
-        <v>26</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>27</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>28</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>29</v>
-      </c>
-      <c r="BJ7" s="4">
-        <v>30</v>
-      </c>
-      <c r="BK7" s="4">
-        <v>31</v>
-      </c>
-      <c r="BL7" s="3">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="3">
-        <v>2</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>3</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>4</v>
-      </c>
-      <c r="BP7" s="3">
-        <v>5</v>
-      </c>
-      <c r="BQ7" s="4">
-        <v>6</v>
-      </c>
-      <c r="BR7" s="4">
-        <v>7</v>
-      </c>
-      <c r="BS7" s="3">
-        <v>8</v>
-      </c>
-      <c r="BT7" s="3">
-        <v>9</v>
-      </c>
-      <c r="BU7" s="3">
-        <v>10</v>
-      </c>
-      <c r="BV7" s="3">
-        <v>11</v>
-      </c>
-      <c r="BW7" s="3">
-        <v>12</v>
-      </c>
-      <c r="BX7" s="4">
-        <v>13</v>
-      </c>
-      <c r="BY7" s="4">
-        <v>14</v>
-      </c>
-      <c r="BZ7" s="3">
-        <v>15</v>
-      </c>
-      <c r="CA7" s="3">
-        <v>16</v>
-      </c>
-      <c r="CB7" s="3">
-        <v>17</v>
-      </c>
-      <c r="CC7" s="3">
-        <v>18</v>
-      </c>
-      <c r="CD7" s="3">
-        <v>19</v>
-      </c>
-      <c r="CE7" s="4">
-        <v>20</v>
-      </c>
-      <c r="CF7" s="4">
-        <v>21</v>
-      </c>
-      <c r="CG7" s="3">
-        <v>22</v>
-      </c>
-      <c r="CH7" s="3">
-        <v>23</v>
-      </c>
-      <c r="CI7" s="3">
-        <v>24</v>
-      </c>
-      <c r="CJ7" s="3">
-        <v>25</v>
-      </c>
-      <c r="CK7" s="3">
-        <v>26</v>
-      </c>
-      <c r="CL7" s="4">
-        <v>27</v>
-      </c>
-      <c r="CM7" s="4">
-        <v>28</v>
-      </c>
-      <c r="CN7" s="3">
-        <v>29</v>
-      </c>
-      <c r="CO7" s="3">
-        <v>30</v>
-      </c>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="B8" s="15"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4">
+        <v>11</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="O8" s="3">
+        <v>13</v>
+      </c>
+      <c r="P8" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>15</v>
+      </c>
+      <c r="R8" s="3">
+        <v>16</v>
+      </c>
+      <c r="S8" s="3">
+        <v>17</v>
+      </c>
+      <c r="T8" s="4">
+        <v>18</v>
+      </c>
+      <c r="U8" s="4">
+        <v>19</v>
+      </c>
+      <c r="V8" s="3">
+        <v>20</v>
+      </c>
+      <c r="W8" s="3">
+        <v>21</v>
+      </c>
+      <c r="X8" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="3">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="AF8" s="3">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="AG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>8</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>10</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>11</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>12</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>13</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>14</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>15</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>16</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>17</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>18</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>19</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>20</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>21</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>22</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>23</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>24</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>25</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>26</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>27</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>28</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>29</v>
+      </c>
+      <c r="BJ8" s="4">
+        <v>30</v>
+      </c>
+      <c r="BK8" s="4">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="BL8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="BN8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="BO8" s="3">
         <v>4</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="BP8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="BQ8" s="4">
         <v>6</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="BR8" s="4">
         <v>7</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="BS8" s="3">
         <v>8</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BW8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CC8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CJ8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO8" s="3" t="s">
-        <v>3</v>
+      <c r="BT8" s="3">
+        <v>9</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>10</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>11</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>12</v>
+      </c>
+      <c r="BX8" s="4">
+        <v>13</v>
+      </c>
+      <c r="BY8" s="4">
+        <v>14</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>15</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>16</v>
+      </c>
+      <c r="CB8" s="3">
+        <v>17</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>18</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>19</v>
+      </c>
+      <c r="CE8" s="4">
+        <v>20</v>
+      </c>
+      <c r="CF8" s="4">
+        <v>21</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>22</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>23</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>24</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>25</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>26</v>
+      </c>
+      <c r="CL8" s="4">
+        <v>27</v>
+      </c>
+      <c r="CM8" s="4">
+        <v>28</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>29</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BS9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="6"/>
-      <c r="BS9" s="8"/>
-      <c r="BT9" s="8"/>
-      <c r="BU9" s="8"/>
-      <c r="BV9" s="8"/>
-      <c r="BW9" s="8"/>
-      <c r="BX9" s="6"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="8"/>
-      <c r="CA9" s="8"/>
-      <c r="CB9" s="8"/>
-      <c r="CC9" s="8"/>
-      <c r="CD9" s="8"/>
-      <c r="CE9" s="6"/>
-      <c r="CF9" s="6"/>
-      <c r="CG9" s="8"/>
-      <c r="CH9" s="8"/>
-      <c r="CI9" s="8"/>
-      <c r="CJ9" s="8"/>
-      <c r="CK9" s="8"/>
-      <c r="CL9" s="6"/>
-      <c r="CM9" s="6"/>
-      <c r="CN9" s="8"/>
-      <c r="CO9" s="8"/>
-    </row>
-    <row r="10" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2174,7 +2193,7 @@
     </row>
     <row r="11" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2270,7 +2289,7 @@
     </row>
     <row r="12" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2366,7 +2385,7 @@
     </row>
     <row r="13" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2462,7 +2481,7 @@
     </row>
     <row r="14" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2556,9 +2575,9 @@
       <c r="CN14" s="8"/>
       <c r="CO14" s="8"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2572,11 +2591,11 @@
       <c r="L15" s="8"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="8"/>
@@ -2654,7 +2673,7 @@
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2668,15 +2687,15 @@
       <c r="L16" s="8"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -2750,7 +2769,7 @@
     </row>
     <row r="17" spans="2:93" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2771,11 +2790,11 @@
       <c r="S17" s="8"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="8"/>
@@ -2846,7 +2865,7 @@
     </row>
     <row r="18" spans="2:93" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2869,37 +2888,37 @@
       <c r="U18" s="6"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="8"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
       <c r="AO18" s="6"/>
       <c r="AP18" s="6"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
       <c r="BC18" s="6"/>
       <c r="BD18" s="6"/>
       <c r="BE18" s="8"/>
@@ -2941,8 +2960,8 @@
       <c r="CO18" s="8"/>
     </row>
     <row r="19" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
-        <v>35</v>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2974,28 +2993,28 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
+      <c r="AG19" s="14"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="6"/>
       <c r="BE19" s="8"/>
@@ -3036,9 +3055,9 @@
       <c r="CN19" s="8"/>
       <c r="CO19" s="8"/>
     </row>
-    <row r="20" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>9</v>
+    <row r="20" spans="2:93" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3134,7 +3153,7 @@
     </row>
     <row r="21" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3230,7 +3249,7 @@
     </row>
     <row r="22" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3326,7 +3345,7 @@
     </row>
     <row r="23" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3422,7 +3441,7 @@
     </row>
     <row r="24" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3516,9 +3535,9 @@
       <c r="CN24" s="8"/>
       <c r="CO24" s="8"/>
     </row>
-    <row r="25" spans="2:93" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3532,11 +3551,11 @@
       <c r="L25" s="8"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="8"/>
@@ -3614,7 +3633,7 @@
     </row>
     <row r="26" spans="2:93" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3628,18 +3647,18 @@
       <c r="L26" s="8"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="8"/>
@@ -3710,7 +3729,7 @@
     </row>
     <row r="27" spans="2:93" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3731,25 +3750,25 @@
       <c r="S27" s="8"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="8"/>
@@ -3806,7 +3825,7 @@
     </row>
     <row r="28" spans="2:93" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3841,32 +3860,32 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="18"/>
-      <c r="AS28" s="18"/>
-      <c r="AT28" s="18"/>
-      <c r="AU28" s="18"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
-      <c r="AX28" s="18"/>
-      <c r="AY28" s="18"/>
-      <c r="AZ28" s="18"/>
-      <c r="BA28" s="18"/>
-      <c r="BB28" s="18"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="6"/>
-      <c r="BE28" s="18"/>
-      <c r="BF28" s="18"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="18"/>
-      <c r="BI28" s="18"/>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="14"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
       <c r="BJ28" s="6"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="8"/>
@@ -3901,8 +3920,8 @@
       <c r="CO28" s="8"/>
     </row>
     <row r="29" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B29" s="7" t="s">
-        <v>44</v>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3965,25 +3984,25 @@
       <c r="BI29" s="8"/>
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
-      <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
-      <c r="BN29" s="8"/>
-      <c r="BO29" s="8"/>
-      <c r="BP29" s="8"/>
+      <c r="BL29" s="14"/>
+      <c r="BM29" s="14"/>
+      <c r="BN29" s="14"/>
+      <c r="BO29" s="14"/>
+      <c r="BP29" s="14"/>
       <c r="BQ29" s="6"/>
       <c r="BR29" s="6"/>
-      <c r="BS29" s="8"/>
-      <c r="BT29" s="8"/>
-      <c r="BU29" s="8"/>
-      <c r="BV29" s="8"/>
-      <c r="BW29" s="8"/>
+      <c r="BS29" s="14"/>
+      <c r="BT29" s="14"/>
+      <c r="BU29" s="14"/>
+      <c r="BV29" s="14"/>
+      <c r="BW29" s="14"/>
       <c r="BX29" s="6"/>
       <c r="BY29" s="6"/>
-      <c r="BZ29" s="8"/>
-      <c r="CA29" s="8"/>
-      <c r="CB29" s="8"/>
-      <c r="CC29" s="8"/>
-      <c r="CD29" s="8"/>
+      <c r="BZ29" s="14"/>
+      <c r="CA29" s="14"/>
+      <c r="CB29" s="14"/>
+      <c r="CC29" s="14"/>
+      <c r="CD29" s="14"/>
       <c r="CE29" s="6"/>
       <c r="CF29" s="6"/>
       <c r="CG29" s="8"/>
@@ -3996,9 +4015,9 @@
       <c r="CN29" s="8"/>
       <c r="CO29" s="8"/>
     </row>
-    <row r="30" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
-        <v>14</v>
+    <row r="30" spans="2:93" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -4094,7 +4113,7 @@
     </row>
     <row r="31" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -4190,7 +4209,7 @@
     </row>
     <row r="32" spans="2:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -4286,7 +4305,7 @@
     </row>
     <row r="33" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -4380,9 +4399,9 @@
       <c r="CN33" s="8"/>
       <c r="CO33" s="8"/>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:93" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -4431,11 +4450,11 @@
       <c r="AU34" s="8"/>
       <c r="AV34" s="6"/>
       <c r="AW34" s="6"/>
-      <c r="AX34" s="18"/>
-      <c r="AY34" s="18"/>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="18"/>
-      <c r="BB34" s="18"/>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="8"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
       <c r="BC34" s="6"/>
       <c r="BD34" s="6"/>
       <c r="BE34" s="8"/>
@@ -4478,7 +4497,7 @@
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -4534,25 +4553,25 @@
       <c r="BB35" s="8"/>
       <c r="BC35" s="6"/>
       <c r="BD35" s="6"/>
-      <c r="BE35" s="18"/>
-      <c r="BF35" s="18"/>
-      <c r="BG35" s="18"/>
-      <c r="BH35" s="18"/>
-      <c r="BI35" s="18"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="8"/>
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="8"/>
       <c r="BJ35" s="6"/>
       <c r="BK35" s="6"/>
-      <c r="BL35" s="8"/>
-      <c r="BM35" s="8"/>
-      <c r="BN35" s="8"/>
-      <c r="BO35" s="8"/>
-      <c r="BP35" s="8"/>
+      <c r="BL35" s="14"/>
+      <c r="BM35" s="14"/>
+      <c r="BN35" s="14"/>
+      <c r="BO35" s="14"/>
+      <c r="BP35" s="14"/>
       <c r="BQ35" s="6"/>
       <c r="BR35" s="6"/>
-      <c r="BS35" s="8"/>
-      <c r="BT35" s="8"/>
-      <c r="BU35" s="8"/>
-      <c r="BV35" s="8"/>
-      <c r="BW35" s="8"/>
+      <c r="BS35" s="14"/>
+      <c r="BT35" s="14"/>
+      <c r="BU35" s="14"/>
+      <c r="BV35" s="14"/>
+      <c r="BW35" s="14"/>
       <c r="BX35" s="6"/>
       <c r="BY35" s="6"/>
       <c r="BZ35" s="8"/>
@@ -4573,7 +4592,9 @@
       <c r="CO35" s="8"/>
     </row>
     <row r="36" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -4649,55 +4670,149 @@
       <c r="BW36" s="8"/>
       <c r="BX36" s="6"/>
       <c r="BY36" s="6"/>
-      <c r="BZ36" s="8"/>
-      <c r="CA36" s="8"/>
-      <c r="CB36" s="8"/>
-      <c r="CC36" s="8"/>
-      <c r="CD36" s="8"/>
+      <c r="BZ36" s="14"/>
+      <c r="CA36" s="14"/>
+      <c r="CB36" s="14"/>
+      <c r="CC36" s="14"/>
+      <c r="CD36" s="14"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
-      <c r="CG36" s="8"/>
-      <c r="CH36" s="8"/>
-      <c r="CI36" s="8"/>
-      <c r="CJ36" s="8"/>
-      <c r="CK36" s="8"/>
+      <c r="CG36" s="14"/>
+      <c r="CH36" s="14"/>
+      <c r="CI36" s="14"/>
+      <c r="CJ36" s="14"/>
+      <c r="CK36" s="14"/>
       <c r="CL36" s="6"/>
       <c r="CM36" s="6"/>
       <c r="CN36" s="8"/>
       <c r="CO36" s="8"/>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="9" t="s">
-        <v>15</v>
-      </c>
+    <row r="37" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="8"/>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="8"/>
+      <c r="BH37" s="8"/>
+      <c r="BI37" s="8"/>
+      <c r="BJ37" s="6"/>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="8"/>
+      <c r="BM37" s="8"/>
+      <c r="BN37" s="8"/>
+      <c r="BO37" s="8"/>
+      <c r="BP37" s="8"/>
+      <c r="BQ37" s="6"/>
+      <c r="BR37" s="6"/>
+      <c r="BS37" s="8"/>
+      <c r="BT37" s="8"/>
+      <c r="BU37" s="8"/>
+      <c r="BV37" s="8"/>
+      <c r="BW37" s="8"/>
+      <c r="BX37" s="6"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="8"/>
+      <c r="CA37" s="8"/>
+      <c r="CB37" s="8"/>
+      <c r="CC37" s="8"/>
+      <c r="CD37" s="8"/>
+      <c r="CE37" s="6"/>
+      <c r="CF37" s="6"/>
+      <c r="CG37" s="8"/>
+      <c r="CH37" s="8"/>
+      <c r="CI37" s="8"/>
+      <c r="CJ37" s="8"/>
+      <c r="CK37" s="8"/>
+      <c r="CL37" s="6"/>
+      <c r="CM37" s="6"/>
+      <c r="CN37" s="8"/>
+      <c r="CO37" s="8"/>
     </row>
     <row r="39" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="10" t="s">
-        <v>16</v>
+      <c r="B39" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
+      <c r="B40" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="13" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="BL5:CO5"/>
+    <mergeCell ref="C6:BK6"/>
     <mergeCell ref="BL6:CO6"/>
-    <mergeCell ref="AG6:BK6"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:AF6"/>
-    <mergeCell ref="C5:BK5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:AF7"/>
+    <mergeCell ref="AG7:BK7"/>
+    <mergeCell ref="BL7:CO7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
